--- a/natmiOut/OldD7/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.4440249782477</v>
+        <v>0.01732733333333333</v>
       </c>
       <c r="H2">
-        <v>15.4440249782477</v>
+        <v>0.051982</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.522690005088</v>
+        <v>57.55293433333333</v>
       </c>
       <c r="N2">
-        <v>56.522690005088</v>
+        <v>172.658803</v>
       </c>
       <c r="O2">
-        <v>0.3968668001867348</v>
+        <v>0.3976394190790964</v>
       </c>
       <c r="P2">
-        <v>0.3968668001867348</v>
+        <v>0.3976394190790964</v>
       </c>
       <c r="Q2">
-        <v>872.9378362763307</v>
+        <v>0.9972388775051111</v>
       </c>
       <c r="R2">
-        <v>872.9378362763307</v>
+        <v>8.975149897546</v>
       </c>
       <c r="S2">
-        <v>0.3968668001867348</v>
+        <v>0.0003599468200985743</v>
       </c>
       <c r="T2">
-        <v>0.3968668001867348</v>
+        <v>0.0003599468200985744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.4440249782477</v>
+        <v>0.01732733333333333</v>
       </c>
       <c r="H3">
-        <v>15.4440249782477</v>
+        <v>0.051982</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>73.9148162099778</v>
+        <v>73.95503733333332</v>
       </c>
       <c r="N3">
-        <v>73.9148162099778</v>
+        <v>221.865112</v>
       </c>
       <c r="O3">
-        <v>0.518983378055855</v>
+        <v>0.5109633144485465</v>
       </c>
       <c r="P3">
-        <v>0.518983378055855</v>
+        <v>0.5109633144485466</v>
       </c>
       <c r="Q3">
-        <v>1141.542267809485</v>
+        <v>1.281443583553778</v>
       </c>
       <c r="R3">
-        <v>1141.542267809485</v>
+        <v>11.532992251984</v>
       </c>
       <c r="S3">
-        <v>0.518983378055855</v>
+        <v>0.00046252864127185</v>
       </c>
       <c r="T3">
-        <v>0.518983378055855</v>
+        <v>0.0004625286412718502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01732733333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.051982</v>
+      </c>
+      <c r="I4">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="J4">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01589133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.047674</v>
+      </c>
+      <c r="O4">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="P4">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="Q4">
+        <v>0.0002753544297777778</v>
+      </c>
+      <c r="R4">
+        <v>0.002478189868</v>
+      </c>
+      <c r="S4">
+        <v>9.938737210740093E-08</v>
+      </c>
+      <c r="T4">
+        <v>9.938737210740093E-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01732733333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.051982</v>
+      </c>
+      <c r="I5">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="J5">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.21262833333333</v>
+      </c>
+      <c r="N5">
+        <v>39.637885</v>
+      </c>
+      <c r="O5">
+        <v>0.09128747153960072</v>
+      </c>
+      <c r="P5">
+        <v>0.09128747153960073</v>
+      </c>
+      <c r="Q5">
+        <v>0.2289396153411111</v>
+      </c>
+      <c r="R5">
+        <v>2.06045653807</v>
+      </c>
+      <c r="S5">
+        <v>8.263424982265732E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.263424982265733E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.091716</v>
+      </c>
+      <c r="H6">
+        <v>3.275148</v>
+      </c>
+      <c r="I6">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J6">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>57.55293433333333</v>
+      </c>
+      <c r="N6">
+        <v>172.658803</v>
+      </c>
+      <c r="O6">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="P6">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="Q6">
+        <v>62.83145925864932</v>
+      </c>
+      <c r="R6">
+        <v>565.4831333278439</v>
+      </c>
+      <c r="S6">
+        <v>0.02267860236143675</v>
+      </c>
+      <c r="T6">
+        <v>0.02267860236143676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.091716</v>
+      </c>
+      <c r="H7">
+        <v>3.275148</v>
+      </c>
+      <c r="I7">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J7">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>73.95503733333332</v>
+      </c>
+      <c r="N7">
+        <v>221.865112</v>
+      </c>
+      <c r="O7">
+        <v>0.5109633144485465</v>
+      </c>
+      <c r="P7">
+        <v>0.5109633144485466</v>
+      </c>
+      <c r="Q7">
+        <v>80.73789753739732</v>
+      </c>
+      <c r="R7">
+        <v>726.6410778365758</v>
+      </c>
+      <c r="S7">
+        <v>0.02914181359709548</v>
+      </c>
+      <c r="T7">
+        <v>0.02914181359709548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.091716</v>
+      </c>
+      <c r="H8">
+        <v>3.275148</v>
+      </c>
+      <c r="I8">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J8">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01589133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.047674</v>
+      </c>
+      <c r="O8">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="P8">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="Q8">
+        <v>0.01734882286133333</v>
+      </c>
+      <c r="R8">
+        <v>0.156139405752</v>
+      </c>
+      <c r="S8">
+        <v>6.26194361476684E-06</v>
+      </c>
+      <c r="T8">
+        <v>6.261943614766841E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>15.4440249782477</v>
-      </c>
-      <c r="H4">
-        <v>15.4440249782477</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>11.9848127556639</v>
-      </c>
-      <c r="N4">
-        <v>11.9848127556639</v>
-      </c>
-      <c r="O4">
-        <v>0.08414982175741001</v>
-      </c>
-      <c r="P4">
-        <v>0.08414982175741001</v>
-      </c>
-      <c r="Q4">
-        <v>185.0937475580949</v>
-      </c>
-      <c r="R4">
-        <v>185.0937475580949</v>
-      </c>
-      <c r="S4">
-        <v>0.08414982175741001</v>
-      </c>
-      <c r="T4">
-        <v>0.08414982175741001</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.091716</v>
+      </c>
+      <c r="H9">
+        <v>3.275148</v>
+      </c>
+      <c r="I9">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J9">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.21262833333333</v>
+      </c>
+      <c r="N9">
+        <v>39.637885</v>
+      </c>
+      <c r="O9">
+        <v>0.09128747153960072</v>
+      </c>
+      <c r="P9">
+        <v>0.09128747153960073</v>
+      </c>
+      <c r="Q9">
+        <v>14.42443775355333</v>
+      </c>
+      <c r="R9">
+        <v>129.81993978198</v>
+      </c>
+      <c r="S9">
+        <v>0.005206406025896973</v>
+      </c>
+      <c r="T9">
+        <v>0.005206406025896974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H10">
+        <v>52.69577</v>
+      </c>
+      <c r="I10">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J10">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.55293433333333</v>
+      </c>
+      <c r="N10">
+        <v>172.658803</v>
+      </c>
+      <c r="O10">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="P10">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="Q10">
+        <v>1010.932063484812</v>
+      </c>
+      <c r="R10">
+        <v>9098.38857136331</v>
+      </c>
+      <c r="S10">
+        <v>0.3648892856016669</v>
+      </c>
+      <c r="T10">
+        <v>0.3648892856016669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H11">
+        <v>52.69577</v>
+      </c>
+      <c r="I11">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J11">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>73.95503733333332</v>
+      </c>
+      <c r="N11">
+        <v>221.865112</v>
+      </c>
+      <c r="O11">
+        <v>0.5109633144485465</v>
+      </c>
+      <c r="P11">
+        <v>0.5109633144485466</v>
+      </c>
+      <c r="Q11">
+        <v>1299.039212552915</v>
+      </c>
+      <c r="R11">
+        <v>11691.35291297624</v>
+      </c>
+      <c r="S11">
+        <v>0.4688796679403239</v>
+      </c>
+      <c r="T11">
+        <v>0.468879667940324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H12">
+        <v>52.69577</v>
+      </c>
+      <c r="I12">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J12">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01589133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.047674</v>
+      </c>
+      <c r="O12">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="P12">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="Q12">
+        <v>0.2791353487755556</v>
+      </c>
+      <c r="R12">
+        <v>2.51221813898</v>
+      </c>
+      <c r="S12">
+        <v>0.0001007520699756842</v>
+      </c>
+      <c r="T12">
+        <v>0.0001007520699756842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H13">
+        <v>52.69577</v>
+      </c>
+      <c r="I13">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J13">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.21262833333333</v>
+      </c>
+      <c r="N13">
+        <v>39.637885</v>
+      </c>
+      <c r="O13">
+        <v>0.09128747153960072</v>
+      </c>
+      <c r="P13">
+        <v>0.09128747153960073</v>
+      </c>
+      <c r="Q13">
+        <v>232.0832079162722</v>
+      </c>
+      <c r="R13">
+        <v>2088.74887124645</v>
+      </c>
+      <c r="S13">
+        <v>0.08376890890649247</v>
+      </c>
+      <c r="T13">
+        <v>0.08376890890649247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.467502</v>
+      </c>
+      <c r="H14">
+        <v>1.402506</v>
+      </c>
+      <c r="I14">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J14">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>57.55293433333333</v>
+      </c>
+      <c r="N14">
+        <v>172.658803</v>
+      </c>
+      <c r="O14">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="P14">
+        <v>0.3976394190790964</v>
+      </c>
+      <c r="Q14">
+        <v>26.906111906702</v>
+      </c>
+      <c r="R14">
+        <v>242.155007160318</v>
+      </c>
+      <c r="S14">
+        <v>0.009711584295894176</v>
+      </c>
+      <c r="T14">
+        <v>0.009711584295894178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.467502</v>
+      </c>
+      <c r="H15">
+        <v>1.402506</v>
+      </c>
+      <c r="I15">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J15">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>73.95503733333332</v>
+      </c>
+      <c r="N15">
+        <v>221.865112</v>
+      </c>
+      <c r="O15">
+        <v>0.5109633144485465</v>
+      </c>
+      <c r="P15">
+        <v>0.5109633144485466</v>
+      </c>
+      <c r="Q15">
+        <v>34.57412786340799</v>
+      </c>
+      <c r="R15">
+        <v>311.167150770672</v>
+      </c>
+      <c r="S15">
+        <v>0.01247930426985528</v>
+      </c>
+      <c r="T15">
+        <v>0.01247930426985529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.467502</v>
+      </c>
+      <c r="H16">
+        <v>1.402506</v>
+      </c>
+      <c r="I16">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J16">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01589133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.047674</v>
+      </c>
+      <c r="O16">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="P16">
+        <v>0.0001097949327563498</v>
+      </c>
+      <c r="Q16">
+        <v>0.007429230116000001</v>
+      </c>
+      <c r="R16">
+        <v>0.06686307104400001</v>
+      </c>
+      <c r="S16">
+        <v>2.68153179379136E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.68153179379136E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.467502</v>
+      </c>
+      <c r="H17">
+        <v>1.402506</v>
+      </c>
+      <c r="I17">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J17">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.21262833333333</v>
+      </c>
+      <c r="N17">
+        <v>39.637885</v>
+      </c>
+      <c r="O17">
+        <v>0.09128747153960072</v>
+      </c>
+      <c r="P17">
+        <v>0.09128747153960073</v>
+      </c>
+      <c r="Q17">
+        <v>6.17693017109</v>
+      </c>
+      <c r="R17">
+        <v>55.59237153981</v>
+      </c>
+      <c r="S17">
+        <v>0.002229522357388632</v>
+      </c>
+      <c r="T17">
+        <v>0.002229522357388632</v>
       </c>
     </row>
   </sheetData>
